--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Semi_Final/Bartronics India Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Semi_Final/Bartronics India Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="112">
   <si>
     <t>Balance Sheet of Bartronics India(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,70 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 04</t>
-  </si>
-  <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Sep 12</t>
-  </si>
-  <si>
-    <t>Sep 13</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>Cash Flow of Bartronics India(in Rs. Cr.)</t>
@@ -215,9 +224,6 @@
     <t>Quarterly Results of Bartronics India(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,52 +281,13 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>Q1</t>
@@ -744,13 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +757,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>4.38</v>
-      </c>
-      <c r="C2">
-        <v>3.46</v>
       </c>
       <c r="D2">
         <v>3.46</v>
       </c>
       <c r="E2">
+        <v>3.46</v>
+      </c>
+      <c r="F2">
         <v>7.84</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.79</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.94</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15.82</v>
-      </c>
-      <c r="I2">
-        <v>6.75</v>
       </c>
       <c r="J2">
         <v>6.75</v>
       </c>
       <c r="K2">
+        <v>6.75</v>
+      </c>
+      <c r="L2">
         <v>6.76</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9.06</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>15.82</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>4.38</v>
-      </c>
-      <c r="C3">
-        <v>5.19</v>
       </c>
       <c r="D3">
         <v>5.19</v>
       </c>
       <c r="E3">
+        <v>5.19</v>
+      </c>
+      <c r="F3">
         <v>9.57</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.43</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.66</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>21.1</v>
-      </c>
-      <c r="I3">
-        <v>7.58</v>
       </c>
       <c r="J3">
         <v>7.58</v>
       </c>
       <c r="K3">
+        <v>7.58</v>
+      </c>
+      <c r="L3">
         <v>7.61</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>13.49</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>21.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>14.57</v>
-      </c>
-      <c r="C4">
-        <v>53.83</v>
       </c>
       <c r="D4">
         <v>53.83</v>
       </c>
       <c r="E4">
+        <v>53.83</v>
+      </c>
+      <c r="F4">
         <v>68.40000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.52</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15.24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>85.19</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.6</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>24.71</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>24.73</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>60.45</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>85.19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>17.82</v>
-      </c>
-      <c r="C5">
-        <v>99.78</v>
       </c>
       <c r="D5">
         <v>99.78</v>
       </c>
       <c r="E5">
+        <v>99.78</v>
+      </c>
+      <c r="F5">
         <v>117.6</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>50.36</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>175.86</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11.65</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>22.56</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>24.17</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>151.69</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>175.86</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>26.54</v>
-      </c>
-      <c r="C6">
-        <v>215.82</v>
       </c>
       <c r="D6">
         <v>215.82</v>
       </c>
       <c r="E6">
+        <v>215.82</v>
+      </c>
+      <c r="F6">
         <v>242.36</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11.47</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>74.45999999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>594.09</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>47.81</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>178.58</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>182.12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>411.97</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>594.09</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>28.98</v>
-      </c>
-      <c r="C7">
-        <v>278.07</v>
       </c>
       <c r="D7">
         <v>278.07</v>
       </c>
       <c r="E7">
+        <v>278.07</v>
+      </c>
+      <c r="F7">
         <v>307.05</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15.15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>282.24</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1036.66</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>91.51000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>297.06</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>300.39</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>736.27</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1036.66</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>34.05</v>
-      </c>
-      <c r="C8">
-        <v>408.5</v>
       </c>
       <c r="D8">
         <v>408.5</v>
       </c>
       <c r="E8">
+        <v>408.5</v>
+      </c>
+      <c r="F8">
         <v>442.55</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>512.1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1507.31</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>113.3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>497.24</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>499.53</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1007.79</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1507.31</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>34.05</v>
-      </c>
-      <c r="C9">
-        <v>452.23</v>
       </c>
       <c r="D9">
         <v>452.23</v>
       </c>
       <c r="E9">
+        <v>452.23</v>
+      </c>
+      <c r="F9">
         <v>530.9299999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>89.62</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>548.2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1521.76</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>133.7</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>283.27</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>815.95</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>705.8</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1521.76</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
         <v>34.05</v>
-      </c>
-      <c r="C10">
-        <v>332.72</v>
       </c>
       <c r="D10">
         <v>332.72</v>
       </c>
       <c r="E10">
+        <v>332.72</v>
+      </c>
+      <c r="F10">
         <v>366.77</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>458.06</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1066.51</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1507.52</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>99.87</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>187.02</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>628.97</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>878.55</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1507.52</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>34.05</v>
-      </c>
-      <c r="C11">
-        <v>296.13</v>
       </c>
       <c r="D11">
         <v>296.13</v>
       </c>
       <c r="E11">
+        <v>296.13</v>
+      </c>
+      <c r="F11">
         <v>330.18</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>550</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1239.32</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1610.57</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>76.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>133.49</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>585.75</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1024.82</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1610.57</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>34.05</v>
-      </c>
-      <c r="C12">
-        <v>148.71</v>
       </c>
       <c r="D12">
         <v>148.71</v>
       </c>
       <c r="E12">
+        <v>148.71</v>
+      </c>
+      <c r="F12">
         <v>182.76</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>616.33</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1261.66</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1446.71</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>53.08</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>78.16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>540.63</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>906.08</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1446.71</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>34.05</v>
-      </c>
-      <c r="C13">
-        <v>115.53</v>
       </c>
       <c r="D13">
         <v>115.53</v>
       </c>
       <c r="E13">
+        <v>115.53</v>
+      </c>
+      <c r="F13">
         <v>149.58</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>678.13</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1330.67</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1481.45</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>45.18</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>68.72</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>530.3200000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>951.13</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1481.45</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>34.05</v>
-      </c>
-      <c r="C14">
-        <v>57.47</v>
       </c>
       <c r="D14">
         <v>57.47</v>
       </c>
       <c r="E14">
+        <v>57.47</v>
+      </c>
+      <c r="F14">
         <v>91.52</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>723.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1372.7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1465.37</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>40.49</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>63.66</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>525.05</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>940.3200000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1465.37</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>34.05</v>
-      </c>
-      <c r="C15">
-        <v>14.85</v>
       </c>
       <c r="D15">
         <v>14.85</v>
       </c>
       <c r="E15">
+        <v>14.85</v>
+      </c>
+      <c r="F15">
         <v>48.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>775.17</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1163.12</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1212.53</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>35.15</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>58.1</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>520.22</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>692.3200000000001</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1212.53</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>34.05</v>
-      </c>
-      <c r="C16">
-        <v>-27.4</v>
       </c>
       <c r="D16">
         <v>-27.4</v>
       </c>
       <c r="E16">
+        <v>-27.4</v>
+      </c>
+      <c r="F16">
         <v>6.65</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>845.88</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1244.88</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1251.81</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>30.38</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>52.96</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>527.22</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>724.59</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1251.81</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>34.05</v>
-      </c>
-      <c r="C17">
-        <v>-51.06</v>
       </c>
       <c r="D17">
         <v>-51.06</v>
       </c>
       <c r="E17">
+        <v>-51.06</v>
+      </c>
+      <c r="F17">
         <v>-17.01</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>765.04</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1291.09</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1274.08</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>23.16</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>44.3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>511.38</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>762.71</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1274.08</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>34.05</v>
-      </c>
-      <c r="C18">
-        <v>-108.08</v>
       </c>
       <c r="D18">
         <v>-108.08</v>
       </c>
       <c r="E18">
+        <v>-108.08</v>
+      </c>
+      <c r="F18">
         <v>-74.03</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>782.72</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1335.39</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1261.36</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18.89</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>40.02</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>508.2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>753.16</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1261.36</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>34.05</v>
-      </c>
-      <c r="C19">
-        <v>-146.56</v>
       </c>
       <c r="D19">
         <v>-146.56</v>
       </c>
       <c r="E19">
+        <v>-146.56</v>
+      </c>
+      <c r="F19">
         <v>-112.52</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>819.67</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1401.27</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1288.77</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14.63</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>35.76</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>504.74</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>784.02</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1288.77</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>30.46</v>
-      </c>
-      <c r="C20">
-        <v>-5.05</v>
       </c>
       <c r="D20">
         <v>-5.05</v>
       </c>
       <c r="E20">
+        <v>-5.05</v>
+      </c>
+      <c r="F20">
         <v>25.41</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.13</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>43.36</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>68.77</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.83</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3.84</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5.63</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>63.14</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>68.77</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>30.46</v>
-      </c>
-      <c r="C21">
-        <v>-3.95</v>
       </c>
       <c r="D21">
         <v>-3.95</v>
       </c>
       <c r="E21">
+        <v>-3.95</v>
+      </c>
+      <c r="F21">
         <v>26.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.98</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.81</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>29.74</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>16.57</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13.17</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>29.74</v>
       </c>
     </row>
@@ -1618,618 +1648,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2.75</v>
+      </c>
+      <c r="D3">
+        <v>1.42</v>
+      </c>
+      <c r="E3">
+        <v>-1.7</v>
+      </c>
+      <c r="F3">
+        <v>0.28</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>6.11</v>
+      </c>
+      <c r="D4">
+        <v>0.31</v>
+      </c>
+      <c r="E4">
+        <v>-18.13</v>
+      </c>
+      <c r="F4">
+        <v>53.64</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>35.81</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>14.77</v>
+      </c>
+      <c r="D5">
+        <v>-75.70999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-1.13</v>
+      </c>
+      <c r="F5">
+        <v>41.23</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-35.61</v>
+      </c>
+      <c r="I5">
+        <v>35.82</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>41.04</v>
+      </c>
+      <c r="D6">
+        <v>-218.95</v>
+      </c>
+      <c r="E6">
+        <v>-161.5</v>
+      </c>
+      <c r="F6">
+        <v>385.96</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5.51</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>68.12</v>
+      </c>
+      <c r="D7">
+        <v>-19.89</v>
+      </c>
+      <c r="E7">
+        <v>-152.22</v>
+      </c>
+      <c r="F7">
+        <v>173.11</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.01</v>
+      </c>
+      <c r="I7">
+        <v>5.71</v>
+      </c>
+      <c r="J7">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>108.07</v>
+      </c>
+      <c r="D8">
+        <v>54.96</v>
+      </c>
+      <c r="E8">
+        <v>-249.53</v>
+      </c>
+      <c r="F8">
+        <v>198.84</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8">
+        <v>4.28</v>
+      </c>
+      <c r="I8">
+        <v>6.72</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>51.86</v>
+      </c>
+      <c r="D9">
+        <v>95.11</v>
+      </c>
+      <c r="E9">
+        <v>-6.87</v>
+      </c>
+      <c r="F9">
+        <v>-92.17</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-3.92</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>-118</v>
+      </c>
+      <c r="D10">
+        <v>81.12</v>
+      </c>
+      <c r="E10">
+        <v>-2.69</v>
+      </c>
+      <c r="F10">
+        <v>-82.31</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-3.89</v>
+      </c>
+      <c r="I10">
+        <v>7.08</v>
+      </c>
+      <c r="J10">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>-48.74</v>
+      </c>
+      <c r="D11">
+        <v>-11.65</v>
+      </c>
+      <c r="E11">
+        <v>55.86</v>
+      </c>
+      <c r="F11">
+        <v>-43.99</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.22</v>
+      </c>
+      <c r="I11">
+        <v>3.19</v>
+      </c>
+      <c r="J11">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>-127.74</v>
+      </c>
+      <c r="D12">
+        <v>107.22</v>
+      </c>
+      <c r="E12">
+        <v>7.67</v>
+      </c>
+      <c r="F12">
+        <v>-114.24</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.66</v>
+      </c>
+      <c r="I12">
+        <v>3.41</v>
+      </c>
+      <c r="J12">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>-35.43</v>
+      </c>
+      <c r="D13">
+        <v>-5.28</v>
+      </c>
+      <c r="E13">
+        <v>-1.68</v>
+      </c>
+      <c r="F13">
+        <v>7.86</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>4.06</v>
+      </c>
+      <c r="J13">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>-51.19</v>
+      </c>
+      <c r="D14">
+        <v>3.55</v>
+      </c>
+      <c r="E14">
+        <v>1.09</v>
+      </c>
+      <c r="F14">
+        <v>-3.32</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1.31</v>
+      </c>
+      <c r="I14">
+        <v>4.96</v>
+      </c>
+      <c r="J14">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>-43.45</v>
+      </c>
+      <c r="D15">
+        <v>63.52</v>
+      </c>
+      <c r="E15">
+        <v>0.26</v>
+      </c>
+      <c r="F15">
+        <v>-63.86</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I15">
+        <v>6.27</v>
+      </c>
+      <c r="J15">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>-73.69</v>
+      </c>
+      <c r="D16">
+        <v>31.32</v>
+      </c>
+      <c r="E16">
+        <v>20.16</v>
+      </c>
+      <c r="F16">
+        <v>-51.77</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-0.29</v>
+      </c>
+      <c r="I16">
+        <v>6.2</v>
+      </c>
+      <c r="J16">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>-46.86</v>
+      </c>
+      <c r="D17">
+        <v>32.29</v>
+      </c>
+      <c r="E17">
+        <v>38.39</v>
+      </c>
+      <c r="F17">
+        <v>-68.11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2.57</v>
+      </c>
+      <c r="I17">
+        <v>5.91</v>
+      </c>
+      <c r="J17">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>-50.48</v>
+      </c>
+      <c r="D18">
+        <v>27.48</v>
+      </c>
+      <c r="E18">
+        <v>0.24</v>
+      </c>
+      <c r="F18">
+        <v>-25.4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2.32</v>
+      </c>
+      <c r="I18">
+        <v>8.48</v>
+      </c>
+      <c r="J18">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>-50.88</v>
+      </c>
+      <c r="D19">
+        <v>3.95</v>
+      </c>
+      <c r="E19">
+        <v>0.12</v>
+      </c>
+      <c r="F19">
+        <v>0.03</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.1</v>
+      </c>
+      <c r="I19">
+        <v>10.8</v>
+      </c>
+      <c r="J19">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>129.69</v>
+      </c>
+      <c r="D20">
+        <v>-4.1</v>
+      </c>
+      <c r="E20">
+        <v>0.59</v>
+      </c>
+      <c r="F20">
+        <v>-2.25</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-5.77</v>
+      </c>
+      <c r="I20">
+        <v>14.9</v>
+      </c>
+      <c r="J20">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2.75</v>
-      </c>
-      <c r="C3">
-        <v>1.42</v>
-      </c>
-      <c r="D3">
-        <v>-1.7</v>
-      </c>
-      <c r="E3">
-        <v>0.28</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.01</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>6.11</v>
-      </c>
-      <c r="C4">
-        <v>0.31</v>
-      </c>
-      <c r="D4">
-        <v>-18.13</v>
-      </c>
-      <c r="E4">
-        <v>53.64</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>35.81</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>35.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>14.77</v>
-      </c>
-      <c r="C5">
-        <v>-75.70999999999999</v>
-      </c>
-      <c r="D5">
-        <v>-1.13</v>
-      </c>
-      <c r="E5">
-        <v>41.23</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-35.61</v>
-      </c>
-      <c r="H5">
-        <v>35.82</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>41.04</v>
-      </c>
-      <c r="C6">
-        <v>-218.95</v>
-      </c>
-      <c r="D6">
-        <v>-161.5</v>
-      </c>
-      <c r="E6">
-        <v>385.96</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5.51</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>68.12</v>
-      </c>
-      <c r="C7">
-        <v>-19.89</v>
-      </c>
-      <c r="D7">
-        <v>-152.22</v>
-      </c>
-      <c r="E7">
-        <v>173.11</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1.01</v>
-      </c>
-      <c r="H7">
-        <v>5.71</v>
-      </c>
-      <c r="I7">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>108.07</v>
-      </c>
-      <c r="C8">
-        <v>54.96</v>
-      </c>
-      <c r="D8">
-        <v>-249.53</v>
-      </c>
-      <c r="E8">
-        <v>198.84</v>
-      </c>
-      <c r="F8">
-        <v>0.01</v>
-      </c>
-      <c r="G8">
-        <v>4.28</v>
-      </c>
-      <c r="H8">
-        <v>6.72</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>51.86</v>
-      </c>
-      <c r="C9">
-        <v>95.11</v>
-      </c>
-      <c r="D9">
-        <v>-6.87</v>
-      </c>
-      <c r="E9">
-        <v>-92.17</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-3.92</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>-118</v>
-      </c>
-      <c r="C10">
-        <v>81.12</v>
-      </c>
-      <c r="D10">
-        <v>-2.69</v>
-      </c>
-      <c r="E10">
-        <v>-82.31</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-3.89</v>
-      </c>
-      <c r="H10">
-        <v>7.08</v>
-      </c>
-      <c r="I10">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>-48.74</v>
-      </c>
-      <c r="C11">
-        <v>-11.65</v>
-      </c>
-      <c r="D11">
-        <v>55.86</v>
-      </c>
-      <c r="E11">
-        <v>-43.99</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0.22</v>
-      </c>
-      <c r="H11">
-        <v>3.19</v>
-      </c>
-      <c r="I11">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>-127.74</v>
-      </c>
-      <c r="C12">
-        <v>107.22</v>
-      </c>
-      <c r="D12">
-        <v>7.67</v>
-      </c>
-      <c r="E12">
-        <v>-114.24</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.66</v>
-      </c>
-      <c r="H12">
-        <v>3.41</v>
-      </c>
-      <c r="I12">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>-35.43</v>
-      </c>
-      <c r="C13">
-        <v>-5.28</v>
-      </c>
-      <c r="D13">
-        <v>-1.68</v>
-      </c>
-      <c r="E13">
-        <v>7.86</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.9</v>
-      </c>
-      <c r="H13">
-        <v>4.06</v>
-      </c>
-      <c r="I13">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>-51.19</v>
-      </c>
-      <c r="C14">
-        <v>3.55</v>
-      </c>
-      <c r="D14">
-        <v>1.09</v>
-      </c>
-      <c r="E14">
-        <v>-3.32</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1.31</v>
-      </c>
-      <c r="H14">
-        <v>4.96</v>
-      </c>
-      <c r="I14">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>-43.45</v>
-      </c>
-      <c r="C15">
-        <v>63.52</v>
-      </c>
-      <c r="D15">
-        <v>0.26</v>
-      </c>
-      <c r="E15">
-        <v>-63.86</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H15">
-        <v>6.27</v>
-      </c>
-      <c r="I15">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>-73.69</v>
-      </c>
-      <c r="C16">
-        <v>31.32</v>
-      </c>
-      <c r="D16">
-        <v>20.16</v>
-      </c>
-      <c r="E16">
-        <v>-51.77</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>-0.29</v>
-      </c>
-      <c r="H16">
-        <v>6.2</v>
-      </c>
-      <c r="I16">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>-46.86</v>
-      </c>
-      <c r="C17">
-        <v>32.29</v>
-      </c>
-      <c r="D17">
-        <v>38.39</v>
-      </c>
-      <c r="E17">
-        <v>-68.11</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>2.57</v>
-      </c>
-      <c r="H17">
-        <v>5.91</v>
-      </c>
-      <c r="I17">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>-50.48</v>
-      </c>
-      <c r="C18">
-        <v>27.48</v>
-      </c>
-      <c r="D18">
-        <v>0.24</v>
-      </c>
-      <c r="E18">
-        <v>-25.4</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>2.32</v>
-      </c>
-      <c r="H18">
-        <v>8.48</v>
-      </c>
-      <c r="I18">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>-50.88</v>
-      </c>
-      <c r="C19">
-        <v>3.95</v>
-      </c>
-      <c r="D19">
-        <v>0.12</v>
-      </c>
-      <c r="E19">
-        <v>0.03</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>4.1</v>
-      </c>
-      <c r="H19">
-        <v>10.8</v>
-      </c>
-      <c r="I19">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>129.69</v>
-      </c>
-      <c r="C20">
-        <v>-4.1</v>
-      </c>
-      <c r="D20">
-        <v>0.59</v>
-      </c>
-      <c r="E20">
-        <v>-2.25</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>-5.77</v>
-      </c>
-      <c r="H20">
-        <v>14.9</v>
-      </c>
-      <c r="I20">
-        <v>9.130000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+      <c r="C21">
         <v>-0.05</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.48</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.96</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.48</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.94</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.42</v>
       </c>
     </row>
@@ -2240,86 +2333,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>12.58</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>12.58</v>
@@ -2328,46 +2424,46 @@
         <v>12.58</v>
       </c>
       <c r="E2">
+        <v>12.58</v>
+      </c>
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12.58</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.89</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.87</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.25</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.09</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10.45</v>
-      </c>
-      <c r="M2">
-        <v>2.13</v>
       </c>
       <c r="N2">
         <v>2.13</v>
       </c>
       <c r="O2">
+        <v>2.13</v>
+      </c>
+      <c r="P2">
         <v>0.78</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.78</v>
-      </c>
-      <c r="R2">
-        <v>1.35</v>
       </c>
       <c r="S2">
         <v>1.35</v>
@@ -2376,18 +2472,21 @@
         <v>1.35</v>
       </c>
       <c r="U2">
-        <v>3.09</v>
+        <v>1.35</v>
       </c>
       <c r="V2">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>18.06</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>18.06</v>
@@ -2396,46 +2495,46 @@
         <v>18.06</v>
       </c>
       <c r="E3">
+        <v>18.06</v>
+      </c>
+      <c r="F3">
         <v>0.12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18.17</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1.15</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.08</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.84</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.16</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>15.42</v>
-      </c>
-      <c r="M3">
-        <v>2.75</v>
       </c>
       <c r="N3">
         <v>2.75</v>
       </c>
       <c r="O3">
+        <v>2.75</v>
+      </c>
+      <c r="P3">
         <v>0.15</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.21</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.36</v>
-      </c>
-      <c r="R3">
-        <v>2.4</v>
       </c>
       <c r="S3">
         <v>2.4</v>
@@ -2444,18 +2543,21 @@
         <v>2.4</v>
       </c>
       <c r="U3">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="V3">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>29.04</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>29.04</v>
@@ -2464,46 +2566,46 @@
         <v>29.04</v>
       </c>
       <c r="E4">
+        <v>29.04</v>
+      </c>
+      <c r="F4">
         <v>0.44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>29.47</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1.47</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.74</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.39</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>23.37</v>
-      </c>
-      <c r="M4">
-        <v>6.11</v>
       </c>
       <c r="N4">
         <v>6.11</v>
       </c>
       <c r="O4">
+        <v>6.11</v>
+      </c>
+      <c r="P4">
         <v>0.2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.55</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.77</v>
-      </c>
-      <c r="R4">
-        <v>5.34</v>
       </c>
       <c r="S4">
         <v>5.34</v>
@@ -2512,18 +2614,21 @@
         <v>5.34</v>
       </c>
       <c r="U4">
-        <v>3.66</v>
+        <v>5.34</v>
       </c>
       <c r="V4">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>63.52</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>63.52</v>
@@ -2532,46 +2637,46 @@
         <v>63.52</v>
       </c>
       <c r="E5">
+        <v>63.52</v>
+      </c>
+      <c r="F5">
         <v>0.92</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>64.44</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2.48</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.31</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.68</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.82</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>49.67</v>
-      </c>
-      <c r="M5">
-        <v>14.77</v>
       </c>
       <c r="N5">
         <v>14.77</v>
       </c>
       <c r="O5">
+        <v>14.77</v>
+      </c>
+      <c r="P5">
         <v>0.9</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.37</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.32</v>
-      </c>
-      <c r="R5">
-        <v>13.46</v>
       </c>
       <c r="S5">
         <v>13.46</v>
@@ -2580,18 +2685,21 @@
         <v>13.46</v>
       </c>
       <c r="U5">
-        <v>7.55</v>
+        <v>13.46</v>
       </c>
       <c r="V5">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>183.35</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>183.35</v>
@@ -2600,46 +2708,46 @@
         <v>183.35</v>
       </c>
       <c r="E6">
+        <v>183.35</v>
+      </c>
+      <c r="F6">
         <v>-0.16</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>183.19</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>66.61</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.11</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.21</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.18</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5.99</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>142.15</v>
-      </c>
-      <c r="M6">
-        <v>41.04</v>
       </c>
       <c r="N6">
         <v>41.04</v>
       </c>
       <c r="O6">
+        <v>41.04</v>
+      </c>
+      <c r="P6">
         <v>5.93</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.33</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8.300000000000001</v>
-      </c>
-      <c r="R6">
-        <v>32.73</v>
       </c>
       <c r="S6">
         <v>32.73</v>
@@ -2648,202 +2756,211 @@
         <v>32.73</v>
       </c>
       <c r="U6">
-        <v>12.34</v>
+        <v>32.73</v>
       </c>
       <c r="V6">
         <v>12.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>376.47</v>
-      </c>
-      <c r="C7">
-        <v>375.89</v>
       </c>
       <c r="D7">
         <v>375.89</v>
       </c>
       <c r="E7">
+        <v>375.89</v>
+      </c>
+      <c r="F7">
         <v>-1.85</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>374.03</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>98.94</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.18</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15.23</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>27.72</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>18.77</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>288.52</v>
-      </c>
-      <c r="M7">
-        <v>85.52</v>
       </c>
       <c r="N7">
         <v>85.52</v>
       </c>
       <c r="O7">
+        <v>85.52</v>
+      </c>
+      <c r="P7">
         <v>7.96</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10.72</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>20.01</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>65.51000000000001</v>
-      </c>
-      <c r="S7">
-        <v>48.11</v>
       </c>
       <c r="T7">
         <v>48.11</v>
       </c>
       <c r="U7">
-        <v>16.6</v>
+        <v>48.11</v>
       </c>
       <c r="V7">
         <v>16.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>581.58</v>
-      </c>
-      <c r="C8">
-        <v>580.11</v>
       </c>
       <c r="D8">
         <v>580.11</v>
       </c>
       <c r="E8">
+        <v>580.11</v>
+      </c>
+      <c r="F8">
         <v>-20.75</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>559.35</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>128.91</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7.76</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>38.32</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>47.76</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>21.59</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>457.66</v>
-      </c>
-      <c r="M8">
-        <v>101.69</v>
       </c>
       <c r="N8">
         <v>101.69</v>
       </c>
       <c r="O8">
+        <v>101.69</v>
+      </c>
+      <c r="P8">
         <v>18.53</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24.35</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>42.88</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>58.81</v>
-      </c>
-      <c r="S8">
-        <v>65.04000000000001</v>
       </c>
       <c r="T8">
         <v>65.04000000000001</v>
       </c>
       <c r="U8">
-        <v>19.1</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="V8">
         <v>19.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>599.7</v>
-      </c>
-      <c r="C9">
-        <v>597.05</v>
       </c>
       <c r="D9">
         <v>597.05</v>
       </c>
       <c r="E9">
+        <v>597.05</v>
+      </c>
+      <c r="F9">
         <v>9.130000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>606.1799999999999</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>10.55</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>60.16</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>52.37</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>143.81</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>554.3200000000001</v>
-      </c>
-      <c r="M9">
-        <v>51.86</v>
       </c>
       <c r="N9">
         <v>51.86</v>
       </c>
       <c r="O9">
+        <v>51.86</v>
+      </c>
+      <c r="P9">
         <v>9.890000000000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-6.06</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-13.94</v>
-      </c>
-      <c r="R9">
-        <v>65.81</v>
       </c>
       <c r="S9">
         <v>65.81</v>
@@ -2852,66 +2969,69 @@
         <v>65.81</v>
       </c>
       <c r="U9">
+        <v>65.81</v>
+      </c>
+      <c r="V9">
         <v>19.33</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>12.49</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
         <v>557.58</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>556.17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>556.21</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>31.15</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>587.36</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>26.09</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>73.45</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>72.31999999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>121.37</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>705.36</v>
-      </c>
-      <c r="M10">
-        <v>-118</v>
       </c>
       <c r="N10">
         <v>-118</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-118</v>
       </c>
       <c r="P10">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>3.82</v>
       </c>
       <c r="R10">
-        <v>-121.83</v>
+        <v>3.82</v>
       </c>
       <c r="S10">
         <v>-121.83</v>
@@ -2920,66 +3040,69 @@
         <v>-121.83</v>
       </c>
       <c r="U10">
+        <v>-121.83</v>
+      </c>
+      <c r="V10">
         <v>-35.78</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>50.81</v>
-      </c>
-      <c r="C11">
-        <v>50.44</v>
       </c>
       <c r="D11">
         <v>50.44</v>
       </c>
       <c r="E11">
+        <v>50.44</v>
+      </c>
+      <c r="F11">
         <v>63.19</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>113.63</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>8.630000000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>50.46</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>52.77</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10.05</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>162.37</v>
-      </c>
-      <c r="M11">
-        <v>-48.74</v>
       </c>
       <c r="N11">
         <v>-48.74</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-48.74</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>-13.34</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-24.1</v>
-      </c>
-      <c r="R11">
-        <v>-24.64</v>
       </c>
       <c r="S11">
         <v>-24.64</v>
@@ -2988,18 +3111,21 @@
         <v>-24.64</v>
       </c>
       <c r="U11">
-        <v>-7.24</v>
+        <v>-24.64</v>
       </c>
       <c r="V11">
         <v>-7.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>-7.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>39.3</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>39.3</v>
@@ -3008,66 +3134,69 @@
         <v>39.3</v>
       </c>
       <c r="E12">
+        <v>39.3</v>
+      </c>
+      <c r="F12">
         <v>4.57</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>43.87</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>8.52</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>70.05</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>57.21</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>16.93</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>170.56</v>
-      </c>
-      <c r="M12">
-        <v>-126.69</v>
       </c>
       <c r="N12">
         <v>-126.69</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-126.69</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>-15.29</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-111.4</v>
-      </c>
-      <c r="S12">
-        <v>-112.45</v>
       </c>
       <c r="T12">
         <v>-112.45</v>
       </c>
       <c r="U12">
-        <v>-33.03</v>
+        <v>-112.45</v>
       </c>
       <c r="V12">
         <v>-33.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>-33.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>42.96</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>42.96</v>
@@ -3076,66 +3205,69 @@
         <v>42.96</v>
       </c>
       <c r="E13">
+        <v>42.96</v>
+      </c>
+      <c r="F13">
         <v>19.02</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>61.98</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>4.55</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>53.64</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11.16</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>22.45</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>97.36</v>
-      </c>
-      <c r="M13">
-        <v>-35.38</v>
       </c>
       <c r="N13">
         <v>-35.38</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-35.38</v>
       </c>
       <c r="P13">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>-2.25</v>
       </c>
       <c r="R13">
+        <v>-2.25</v>
+      </c>
+      <c r="S13">
         <v>-33.13</v>
-      </c>
-      <c r="S13">
-        <v>-33.18</v>
       </c>
       <c r="T13">
         <v>-33.18</v>
       </c>
       <c r="U13">
-        <v>-9.74</v>
+        <v>-33.18</v>
       </c>
       <c r="V13">
         <v>-9.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>-9.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>72.59</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>72.59</v>
@@ -3144,66 +3276,69 @@
         <v>72.59</v>
       </c>
       <c r="E14">
+        <v>72.59</v>
+      </c>
+      <c r="F14">
         <v>0.19</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>72.78</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>10.73</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>51.87</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6.07</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>32.35</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>120.43</v>
-      </c>
-      <c r="M14">
-        <v>-47.65</v>
       </c>
       <c r="N14">
         <v>-47.65</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-47.65</v>
       </c>
       <c r="P14">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>-0.4</v>
       </c>
       <c r="R14">
+        <v>-0.4</v>
+      </c>
+      <c r="S14">
         <v>-47.25</v>
-      </c>
-      <c r="S14">
-        <v>-50.79</v>
       </c>
       <c r="T14">
         <v>-50.79</v>
       </c>
       <c r="U14">
-        <v>-17.05</v>
+        <v>-50.79</v>
       </c>
       <c r="V14">
         <v>-17.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>-17.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>70.97</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>70.97</v>
@@ -3212,46 +3347,46 @@
         <v>70.97</v>
       </c>
       <c r="E15">
+        <v>70.97</v>
+      </c>
+      <c r="F15">
         <v>1.97</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>72.94</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>10.4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>52.39</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.9</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>38.64</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>116.39</v>
-      </c>
-      <c r="M15">
-        <v>-43.45</v>
       </c>
       <c r="N15">
         <v>-43.45</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-43.45</v>
       </c>
       <c r="P15">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>-0.39</v>
       </c>
       <c r="R15">
-        <v>-43.06</v>
+        <v>-0.39</v>
       </c>
       <c r="S15">
         <v>-43.06</v>
@@ -3260,66 +3395,69 @@
         <v>-43.06</v>
       </c>
       <c r="U15">
-        <v>-12.52</v>
+        <v>-43.06</v>
       </c>
       <c r="V15">
         <v>-12.52</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>-12.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>68.34999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>68.34999999999999</v>
       </c>
       <c r="D16">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="E16">
         <v>71.98999999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.19</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>72.19</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>8.48</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>52.43</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>64.15000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>145.87</v>
-      </c>
-      <c r="M16">
-        <v>-73.69</v>
       </c>
       <c r="N16">
         <v>-73.69</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-73.69</v>
       </c>
       <c r="P16">
-        <v>-7.74</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>-7.74</v>
       </c>
       <c r="R16">
-        <v>-65.94</v>
+        <v>-7.74</v>
       </c>
       <c r="S16">
         <v>-65.94</v>
@@ -3328,18 +3466,21 @@
         <v>-65.94</v>
       </c>
       <c r="U16">
-        <v>-12.54</v>
+        <v>-65.94</v>
       </c>
       <c r="V16">
         <v>-12.54</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>68.01000000000001</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>68.01000000000001</v>
@@ -3348,46 +3489,46 @@
         <v>68.01000000000001</v>
       </c>
       <c r="E17">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="F17">
         <v>3.21</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>71.22</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>7.27</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>52.4</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4.55</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>45.29</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>118.08</v>
-      </c>
-      <c r="M17">
-        <v>-46.86</v>
       </c>
       <c r="N17">
         <v>-46.86</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-46.86</v>
       </c>
       <c r="P17">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>4.41</v>
       </c>
       <c r="R17">
-        <v>-51.27</v>
+        <v>4.41</v>
       </c>
       <c r="S17">
         <v>-51.27</v>
@@ -3396,18 +3537,21 @@
         <v>-51.27</v>
       </c>
       <c r="U17">
-        <v>-6.85</v>
+        <v>-51.27</v>
       </c>
       <c r="V17">
         <v>-6.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>-6.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>63.44</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>63.44</v>
@@ -3416,46 +3560,46 @@
         <v>63.44</v>
       </c>
       <c r="E18">
+        <v>63.44</v>
+      </c>
+      <c r="F18">
         <v>0.24</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>63.68</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>6.09</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>52.4</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4.28</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>48.79</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>114.16</v>
-      </c>
-      <c r="M18">
-        <v>-50.48</v>
       </c>
       <c r="N18">
         <v>-50.48</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>-50.48</v>
       </c>
       <c r="P18">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>-1.25</v>
       </c>
       <c r="R18">
-        <v>-49.23</v>
+        <v>-1.25</v>
       </c>
       <c r="S18">
         <v>-49.23</v>
@@ -3464,18 +3608,21 @@
         <v>-49.23</v>
       </c>
       <c r="U18">
-        <v>-16.75</v>
+        <v>-49.23</v>
       </c>
       <c r="V18">
         <v>-16.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>-16.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>65.56</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>65.56</v>
@@ -3484,46 +3631,46 @@
         <v>65.56</v>
       </c>
       <c r="E19">
+        <v>65.56</v>
+      </c>
+      <c r="F19">
         <v>0.13</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>65.69</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>6.24</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>52.38</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4.27</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>50</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>116.57</v>
-      </c>
-      <c r="M19">
-        <v>-50.88</v>
       </c>
       <c r="N19">
         <v>-50.88</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-50.88</v>
       </c>
       <c r="P19">
-        <v>-0.58</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>-0.58</v>
       </c>
       <c r="R19">
-        <v>-50.3</v>
+        <v>-0.58</v>
       </c>
       <c r="S19">
         <v>-50.3</v>
@@ -3532,18 +3679,21 @@
         <v>-50.3</v>
       </c>
       <c r="U19">
-        <v>-11.3</v>
+        <v>-50.3</v>
       </c>
       <c r="V19">
         <v>-11.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>52.63</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>52.63</v>
@@ -3552,46 +3702,46 @@
         <v>52.63</v>
       </c>
       <c r="E20">
+        <v>52.63</v>
+      </c>
+      <c r="F20">
         <v>0.59</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>53.22</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>6.03</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>26.19</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.18</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>41.91</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>81.05</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-27.83</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>129.69</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
-        <v>19.47</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>19.47</v>
       </c>
       <c r="R20">
-        <v>110.22</v>
+        <v>19.47</v>
       </c>
       <c r="S20">
         <v>110.22</v>
@@ -3600,18 +3750,21 @@
         <v>110.22</v>
       </c>
       <c r="U20">
-        <v>3.62</v>
+        <v>110.22</v>
       </c>
       <c r="V20">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>48.84</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>48.84</v>
@@ -3620,46 +3773,46 @@
         <v>48.84</v>
       </c>
       <c r="E21">
+        <v>48.84</v>
+      </c>
+      <c r="F21">
         <v>1.47</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>50.31</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>38.95</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.58</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0.45</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4.26</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>49.34</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.97</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.23</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>-1.15</v>
       </c>
       <c r="R21">
-        <v>1.38</v>
+        <v>-1.15</v>
       </c>
       <c r="S21">
         <v>1.38</v>
@@ -3668,9 +3821,12 @@
         <v>1.38</v>
       </c>
       <c r="U21">
+        <v>1.38</v>
+      </c>
+      <c r="V21">
         <v>0.05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.05</v>
       </c>
     </row>
@@ -3689,84 +3845,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>1.79</v>
@@ -3831,13 +3987,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>4.42</v>
@@ -3902,13 +4058,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>5.47</v>
@@ -3973,13 +4129,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>11.23</v>
@@ -4044,13 +4200,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>5.18</v>
@@ -4115,13 +4271,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>4.01</v>
@@ -4186,13 +4342,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>6.18</v>
@@ -4257,13 +4413,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>7.24</v>
@@ -4328,13 +4484,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>8.210000000000001</v>
@@ -4399,13 +4555,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>9.4</v>
@@ -4470,13 +4626,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>11.23</v>
@@ -4541,13 +4697,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>14.13</v>
@@ -4612,13 +4768,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>16.57</v>
@@ -4683,13 +4839,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>17.85</v>
@@ -4754,13 +4910,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>19.87</v>
@@ -4825,13 +4981,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>18.31</v>
@@ -4896,13 +5052,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -4967,13 +5123,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>15.74</v>
@@ -5038,13 +5194,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>17.32</v>
@@ -5109,13 +5265,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>18.9</v>
@@ -5180,13 +5336,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
       </c>
       <c r="D22">
         <v>12.98</v>
@@ -5251,13 +5407,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>20.74</v>
@@ -5322,13 +5478,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>18.72</v>
@@ -5393,13 +5549,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>19.56</v>
@@ -5464,13 +5620,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>21.52</v>
@@ -5535,13 +5691,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
         <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
       </c>
       <c r="D27">
         <v>17.95</v>
@@ -5606,13 +5762,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>13.13</v>
@@ -5677,13 +5833,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>15.41</v>
@@ -5748,13 +5904,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>14.39</v>
@@ -5819,13 +5975,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
       </c>
       <c r="D31">
         <v>15.33</v>
@@ -5890,13 +6046,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
       </c>
       <c r="D32">
         <v>18.2</v>
@@ -5961,13 +6117,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>14.82</v>
@@ -6032,13 +6188,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D34">
         <v>16.22</v>
@@ -6103,13 +6259,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>16.29</v>
@@ -6174,13 +6330,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D36">
         <v>18.23</v>
@@ -6245,13 +6401,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D37">
         <v>15.37</v>
@@ -6316,13 +6472,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D38">
         <v>13.73</v>
@@ -6387,13 +6543,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <v>11.47</v>
@@ -6458,13 +6614,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D40">
         <v>12.05</v>
@@ -6529,13 +6685,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>12.07</v>
@@ -6600,13 +6756,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D42">
         <v>12.43</v>
@@ -6671,13 +6827,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>11.92</v>
@@ -6742,13 +6898,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>12.41</v>
@@ -6813,13 +6969,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>13.57</v>
@@ -6884,13 +7040,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>8.85</v>
@@ -6960,1175 +7116,1235 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>28.72</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.42</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6.85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.87</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.09</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25.85</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>23.85</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>16.97</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10.74</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17.24</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8.539999999999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.77</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>20.61</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.33</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4.37</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.14</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25.86</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>21.22</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.24</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>13.27</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25.03</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11.35</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.77</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>19.93</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.39</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4.7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4.19</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.66</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>27.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>23.59</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>21.03</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>18.38</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7.8</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.26</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.12</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>105.74</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>13.47</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>35.65</v>
+      </c>
+      <c r="D5">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E5">
+        <v>9.02</v>
+      </c>
+      <c r="F5">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="G5">
+        <v>7.55</v>
+      </c>
+      <c r="H5">
+        <v>27.96</v>
+      </c>
+      <c r="I5">
+        <v>25.31</v>
+      </c>
+      <c r="J5">
+        <v>23.25</v>
+      </c>
+      <c r="K5">
+        <v>21.18</v>
+      </c>
+      <c r="L5">
+        <v>11.44</v>
+      </c>
+      <c r="M5">
+        <v>7.65</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>204.66</v>
+      </c>
+      <c r="S5">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D6">
+        <v>17.87</v>
+      </c>
+      <c r="E6">
+        <v>16.68</v>
+      </c>
+      <c r="F6">
+        <v>15.47</v>
+      </c>
+      <c r="G6">
+        <v>12.34</v>
+      </c>
+      <c r="H6">
+        <v>25.86</v>
+      </c>
+      <c r="I6">
+        <v>24.13</v>
+      </c>
+      <c r="J6">
+        <v>22.38</v>
+      </c>
+      <c r="K6">
+        <v>17.85</v>
+      </c>
+      <c r="L6">
+        <v>13.5</v>
+      </c>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <v>1.29</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>708.53</v>
+      </c>
+      <c r="S6">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>129.72</v>
+      </c>
+      <c r="D7">
+        <v>44.33</v>
+      </c>
+      <c r="E7">
+        <v>34.77</v>
+      </c>
+      <c r="F7">
+        <v>29.51</v>
+      </c>
+      <c r="G7">
+        <v>16.6</v>
+      </c>
+      <c r="H7">
+        <v>34.17</v>
+      </c>
+      <c r="I7">
+        <v>26.8</v>
+      </c>
+      <c r="J7">
+        <v>22.75</v>
+      </c>
+      <c r="K7">
+        <v>12.8</v>
+      </c>
+      <c r="L7">
+        <v>15.66</v>
+      </c>
+      <c r="M7">
+        <v>4.64</v>
+      </c>
+      <c r="N7">
+        <v>1.79</v>
+      </c>
+      <c r="O7">
+        <v>6.26</v>
+      </c>
+      <c r="P7">
+        <v>3.89</v>
+      </c>
+      <c r="Q7">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="R7">
+        <v>770.52</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>170.37</v>
+      </c>
+      <c r="D8">
+        <v>55.15</v>
+      </c>
+      <c r="E8">
+        <v>41.12</v>
+      </c>
+      <c r="F8">
+        <v>29.87</v>
+      </c>
+      <c r="G8">
+        <v>19.1</v>
+      </c>
+      <c r="H8">
+        <v>32.36</v>
+      </c>
+      <c r="I8">
+        <v>24.13</v>
+      </c>
+      <c r="J8">
+        <v>17.53</v>
+      </c>
+      <c r="K8">
+        <v>11.21</v>
+      </c>
+      <c r="L8">
+        <v>14.69</v>
+      </c>
+      <c r="M8">
+        <v>4.31</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>5.23</v>
+      </c>
+      <c r="P8">
+        <v>3.01</v>
+      </c>
+      <c r="Q8">
+        <v>94.77</v>
+      </c>
+      <c r="R8">
+        <v>1138.76</v>
+      </c>
+      <c r="S8">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>175.35</v>
+      </c>
+      <c r="D9">
+        <v>48.28</v>
+      </c>
+      <c r="E9">
+        <v>32.9</v>
+      </c>
+      <c r="F9">
+        <v>15.23</v>
+      </c>
+      <c r="G9">
+        <v>19.33</v>
+      </c>
+      <c r="H9">
+        <v>27.53</v>
+      </c>
+      <c r="I9">
+        <v>18.76</v>
+      </c>
+      <c r="J9">
+        <v>8.68</v>
+      </c>
+      <c r="K9">
+        <v>11.02</v>
+      </c>
+      <c r="L9">
+        <v>12.39</v>
+      </c>
+      <c r="M9">
+        <v>4.32</v>
+      </c>
+      <c r="N9">
+        <v>0.97</v>
+      </c>
+      <c r="O9">
+        <v>5.17</v>
+      </c>
+      <c r="P9">
+        <v>2.88</v>
+      </c>
+      <c r="Q9">
+        <v>94.83</v>
+      </c>
+      <c r="R9">
+        <v>717.5700000000001</v>
+      </c>
+      <c r="S9">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>163.35</v>
+      </c>
+      <c r="D10">
+        <v>8.15</v>
+      </c>
+      <c r="E10">
+        <v>-13.09</v>
+      </c>
+      <c r="F10">
+        <v>-34.66</v>
+      </c>
+      <c r="G10">
+        <v>-35.78</v>
+      </c>
+      <c r="H10">
+        <v>4.99</v>
+      </c>
+      <c r="I10">
+        <v>-8.01</v>
+      </c>
+      <c r="J10">
+        <v>-21.21</v>
+      </c>
+      <c r="K10">
+        <v>-21.9</v>
+      </c>
+      <c r="L10">
+        <v>-33.21</v>
+      </c>
+      <c r="M10">
+        <v>-8.08</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>301.93</v>
+      </c>
+      <c r="S10">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>14.81</v>
+      </c>
+      <c r="D11">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>35.65</v>
-      </c>
-      <c r="C5">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D5">
-        <v>9.02</v>
-      </c>
-      <c r="E5">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="F5">
-        <v>7.55</v>
-      </c>
-      <c r="G5">
-        <v>27.96</v>
-      </c>
-      <c r="H5">
-        <v>25.31</v>
-      </c>
-      <c r="I5">
-        <v>23.25</v>
-      </c>
-      <c r="J5">
-        <v>21.18</v>
-      </c>
-      <c r="K5">
-        <v>11.44</v>
-      </c>
-      <c r="L5">
-        <v>7.65</v>
-      </c>
-      <c r="M5">
+      <c r="E11">
+        <v>0.51</v>
+      </c>
+      <c r="F11">
+        <v>-14.31</v>
+      </c>
+      <c r="G11">
+        <v>-7.24</v>
+      </c>
+      <c r="H11">
+        <v>108.03</v>
+      </c>
+      <c r="I11">
+        <v>3.41</v>
+      </c>
+      <c r="J11">
+        <v>-96.63</v>
+      </c>
+      <c r="K11">
+        <v>-48.84</v>
+      </c>
+      <c r="L11">
+        <v>-7.46</v>
+      </c>
+      <c r="M11">
+        <v>-1.52</v>
+      </c>
+      <c r="N11">
+        <v>0.89</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>312.8</v>
+      </c>
+      <c r="S11">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>11.54</v>
+      </c>
+      <c r="D12">
+        <v>0.17</v>
+      </c>
+      <c r="E12">
+        <v>-16.63</v>
+      </c>
+      <c r="F12">
+        <v>-37.21</v>
+      </c>
+      <c r="G12">
+        <v>-33.03</v>
+      </c>
+      <c r="H12">
+        <v>1.45</v>
+      </c>
+      <c r="I12">
+        <v>-144.11</v>
+      </c>
+      <c r="J12">
+        <v>-322.35</v>
+      </c>
+      <c r="K12">
+        <v>-286.11</v>
+      </c>
+      <c r="L12">
+        <v>-61.52</v>
+      </c>
+      <c r="M12">
+        <v>-7.77</v>
+      </c>
+      <c r="N12">
+        <v>1.27</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>266.21</v>
+      </c>
+      <c r="S12">
+        <v>466.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>12.62</v>
+      </c>
+      <c r="D13">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="E13">
+        <v>5.36</v>
+      </c>
+      <c r="F13">
+        <v>-10.39</v>
+      </c>
+      <c r="G13">
+        <v>-9.74</v>
+      </c>
+      <c r="H13">
+        <v>68.47</v>
+      </c>
+      <c r="I13">
+        <v>42.49</v>
+      </c>
+      <c r="J13">
+        <v>-82.34999999999999</v>
+      </c>
+      <c r="K13">
+        <v>-77.22</v>
+      </c>
+      <c r="L13">
+        <v>-22.18</v>
+      </c>
+      <c r="M13">
+        <v>-2.23</v>
+      </c>
+      <c r="N13">
+        <v>1.6</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>264.37</v>
+      </c>
+      <c r="S13">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>21.32</v>
+      </c>
+      <c r="D14">
+        <v>3.02</v>
+      </c>
+      <c r="E14">
+        <v>1.24</v>
+      </c>
+      <c r="F14">
+        <v>-13.99</v>
+      </c>
+      <c r="G14">
+        <v>-14.92</v>
+      </c>
+      <c r="H14">
+        <v>14.18</v>
+      </c>
+      <c r="I14">
+        <v>5.82</v>
+      </c>
+      <c r="J14">
+        <v>-65.63</v>
+      </c>
+      <c r="K14">
+        <v>-69.95999999999999</v>
+      </c>
+      <c r="L14">
+        <v>-55.49</v>
+      </c>
+      <c r="M14">
+        <v>-3.46</v>
+      </c>
+      <c r="N14">
+        <v>2.6</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>279.37</v>
+      </c>
+      <c r="S14">
+        <v>27.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>20.84</v>
+      </c>
+      <c r="D15">
+        <v>4.36</v>
+      </c>
+      <c r="E15">
+        <v>2.62</v>
+      </c>
+      <c r="F15">
+        <v>-12.76</v>
+      </c>
+      <c r="G15">
+        <v>-12.65</v>
+      </c>
+      <c r="H15">
+        <v>20.9</v>
+      </c>
+      <c r="I15">
+        <v>12.59</v>
+      </c>
+      <c r="J15">
+        <v>-61.23</v>
+      </c>
+      <c r="K15">
+        <v>-60.68</v>
+      </c>
+      <c r="L15">
+        <v>-88.06</v>
+      </c>
+      <c r="M15">
+        <v>-3.55</v>
+      </c>
+      <c r="N15">
+        <v>3.56</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>200.37</v>
+      </c>
+      <c r="S15">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>21.14</v>
+      </c>
+      <c r="D16">
+        <v>-4.66</v>
+      </c>
+      <c r="E16">
+        <v>-6.24</v>
+      </c>
+      <c r="F16">
+        <v>-21.64</v>
+      </c>
+      <c r="G16">
+        <v>-19.37</v>
+      </c>
+      <c r="H16">
+        <v>-22.03</v>
+      </c>
+      <c r="I16">
+        <v>-29.53</v>
+      </c>
+      <c r="J16">
+        <v>-102.35</v>
+      </c>
+      <c r="K16">
+        <v>-91.59</v>
+      </c>
+      <c r="L16">
+        <v>-991.4400000000001</v>
+      </c>
+      <c r="M16">
+        <v>-5.26</v>
+      </c>
+      <c r="N16">
+        <v>26.27</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>190.92</v>
+      </c>
+      <c r="S16">
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>19.97</v>
+      </c>
+      <c r="D17">
+        <v>2.96</v>
+      </c>
+      <c r="E17">
+        <v>1.63</v>
+      </c>
+      <c r="F17">
+        <v>-13.76</v>
+      </c>
+      <c r="G17">
+        <v>-15.06</v>
+      </c>
+      <c r="H17">
+        <v>14.83</v>
+      </c>
+      <c r="I17">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J17">
+        <v>-68.90000000000001</v>
+      </c>
+      <c r="K17">
+        <v>-75.39</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>-4.02</v>
+      </c>
+      <c r="N17">
+        <v>-19.57</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>326.58</v>
+      </c>
+      <c r="S17">
+        <v>32.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>18.63</v>
+      </c>
+      <c r="D18">
+        <v>1.82</v>
+      </c>
+      <c r="E18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F18">
+        <v>-14.83</v>
+      </c>
+      <c r="G18">
+        <v>-14.46</v>
+      </c>
+      <c r="H18">
+        <v>9.76</v>
+      </c>
+      <c r="I18">
+        <v>3.01</v>
+      </c>
+      <c r="J18">
+        <v>-79.56999999999999</v>
+      </c>
+      <c r="K18">
+        <v>-77.59999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>-3.9</v>
+      </c>
+      <c r="N18">
+        <v>-4.86</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>357.22</v>
+      </c>
+      <c r="S18">
+        <v>57.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>19.26</v>
+      </c>
+      <c r="D19">
+        <v>1.69</v>
+      </c>
+      <c r="E19">
+        <v>0.44</v>
+      </c>
+      <c r="F19">
+        <v>-14.94</v>
+      </c>
+      <c r="G19">
+        <v>-14.77</v>
+      </c>
+      <c r="H19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I19">
+        <v>2.28</v>
+      </c>
+      <c r="J19">
+        <v>-77.59999999999999</v>
+      </c>
+      <c r="K19">
+        <v>-76.72</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>-3.9</v>
+      </c>
+      <c r="N19">
+        <v>-3.44</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>390.58</v>
+      </c>
+      <c r="S19">
+        <v>67.68000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>1.73</v>
+      </c>
+      <c r="D20">
         <v>0.08</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="Q5">
-        <v>204.66</v>
-      </c>
-      <c r="R5">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="C6">
-        <v>17.87</v>
-      </c>
-      <c r="D6">
-        <v>16.68</v>
-      </c>
-      <c r="E6">
-        <v>15.47</v>
-      </c>
-      <c r="F6">
-        <v>12.34</v>
-      </c>
-      <c r="G6">
-        <v>25.86</v>
-      </c>
-      <c r="H6">
-        <v>24.13</v>
-      </c>
-      <c r="I6">
-        <v>22.38</v>
-      </c>
-      <c r="J6">
-        <v>17.85</v>
-      </c>
-      <c r="K6">
-        <v>13.5</v>
-      </c>
-      <c r="L6">
-        <v>5.5</v>
-      </c>
-      <c r="M6">
-        <v>1.29</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>708.53</v>
-      </c>
-      <c r="R6">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>129.72</v>
-      </c>
-      <c r="C7">
-        <v>44.33</v>
-      </c>
-      <c r="D7">
-        <v>34.77</v>
-      </c>
-      <c r="E7">
-        <v>29.51</v>
-      </c>
-      <c r="F7">
-        <v>16.6</v>
-      </c>
-      <c r="G7">
-        <v>34.17</v>
-      </c>
-      <c r="H7">
-        <v>26.8</v>
-      </c>
-      <c r="I7">
-        <v>22.75</v>
-      </c>
-      <c r="J7">
-        <v>12.8</v>
-      </c>
-      <c r="K7">
-        <v>15.66</v>
-      </c>
-      <c r="L7">
+      <c r="E20">
+        <v>-0.05</v>
+      </c>
+      <c r="F20">
+        <v>4.26</v>
+      </c>
+      <c r="G20">
+        <v>3.62</v>
+      </c>
+      <c r="H20">
+        <v>4.82</v>
+      </c>
+      <c r="I20">
+        <v>-3.11</v>
+      </c>
+      <c r="J20">
+        <v>246.43</v>
+      </c>
+      <c r="K20">
+        <v>209.44</v>
+      </c>
+      <c r="L20">
+        <v>433.81</v>
+      </c>
+      <c r="M20">
+        <v>160.27</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>184.58</v>
+      </c>
+      <c r="S20">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>1.6</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
+      </c>
+      <c r="E21">
+        <v>0.03</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
+        <v>0.05</v>
+      </c>
+      <c r="H21">
+        <v>2.9</v>
+      </c>
+      <c r="I21">
+        <v>1.99</v>
+      </c>
+      <c r="J21">
+        <v>0.48</v>
+      </c>
+      <c r="K21">
+        <v>2.83</v>
+      </c>
+      <c r="L21">
+        <v>5.21</v>
+      </c>
+      <c r="M21">
         <v>4.64</v>
       </c>
-      <c r="M7">
-        <v>1.79</v>
-      </c>
-      <c r="N7">
-        <v>6.26</v>
-      </c>
-      <c r="O7">
-        <v>3.89</v>
-      </c>
-      <c r="P7">
-        <v>93.73999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>770.52</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>170.37</v>
-      </c>
-      <c r="C8">
-        <v>55.15</v>
-      </c>
-      <c r="D8">
-        <v>41.12</v>
-      </c>
-      <c r="E8">
-        <v>29.87</v>
-      </c>
-      <c r="F8">
-        <v>19.1</v>
-      </c>
-      <c r="G8">
-        <v>32.36</v>
-      </c>
-      <c r="H8">
-        <v>24.13</v>
-      </c>
-      <c r="I8">
-        <v>17.53</v>
-      </c>
-      <c r="J8">
-        <v>11.21</v>
-      </c>
-      <c r="K8">
-        <v>14.69</v>
-      </c>
-      <c r="L8">
-        <v>4.31</v>
-      </c>
-      <c r="M8">
-        <v>1.4</v>
-      </c>
-      <c r="N8">
-        <v>5.23</v>
-      </c>
-      <c r="O8">
-        <v>3.01</v>
-      </c>
-      <c r="P8">
-        <v>94.77</v>
-      </c>
-      <c r="Q8">
-        <v>1138.76</v>
-      </c>
-      <c r="R8">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>175.35</v>
-      </c>
-      <c r="C9">
-        <v>48.28</v>
-      </c>
-      <c r="D9">
-        <v>32.9</v>
-      </c>
-      <c r="E9">
-        <v>15.23</v>
-      </c>
-      <c r="F9">
-        <v>19.33</v>
-      </c>
-      <c r="G9">
-        <v>27.53</v>
-      </c>
-      <c r="H9">
-        <v>18.76</v>
-      </c>
-      <c r="I9">
-        <v>8.68</v>
-      </c>
-      <c r="J9">
-        <v>11.02</v>
-      </c>
-      <c r="K9">
-        <v>12.39</v>
-      </c>
-      <c r="L9">
-        <v>4.32</v>
-      </c>
-      <c r="M9">
-        <v>0.97</v>
-      </c>
-      <c r="N9">
-        <v>5.17</v>
-      </c>
-      <c r="O9">
-        <v>2.88</v>
-      </c>
-      <c r="P9">
-        <v>94.83</v>
-      </c>
-      <c r="Q9">
-        <v>717.5700000000001</v>
-      </c>
-      <c r="R9">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>163.35</v>
-      </c>
-      <c r="C10">
-        <v>8.15</v>
-      </c>
-      <c r="D10">
-        <v>-13.09</v>
-      </c>
-      <c r="E10">
-        <v>-34.66</v>
-      </c>
-      <c r="F10">
-        <v>-35.78</v>
-      </c>
-      <c r="G10">
-        <v>4.99</v>
-      </c>
-      <c r="H10">
-        <v>-8.01</v>
-      </c>
-      <c r="I10">
-        <v>-21.21</v>
-      </c>
-      <c r="J10">
-        <v>-21.9</v>
-      </c>
-      <c r="K10">
-        <v>-33.21</v>
-      </c>
-      <c r="L10">
-        <v>-8.08</v>
-      </c>
-      <c r="M10">
-        <v>0.6</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>301.93</v>
-      </c>
-      <c r="R10">
-        <v>10.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>14.81</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0.51</v>
-      </c>
-      <c r="E11">
-        <v>-14.31</v>
-      </c>
-      <c r="F11">
-        <v>-7.24</v>
-      </c>
-      <c r="G11">
-        <v>108.03</v>
-      </c>
-      <c r="H11">
-        <v>3.41</v>
-      </c>
-      <c r="I11">
-        <v>-96.63</v>
-      </c>
-      <c r="J11">
-        <v>-48.84</v>
-      </c>
-      <c r="K11">
-        <v>-7.46</v>
-      </c>
-      <c r="L11">
-        <v>-1.52</v>
-      </c>
-      <c r="M11">
-        <v>0.89</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>312.8</v>
-      </c>
-      <c r="R11">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>11.54</v>
-      </c>
-      <c r="C12">
-        <v>0.17</v>
-      </c>
-      <c r="D12">
-        <v>-16.63</v>
-      </c>
-      <c r="E12">
-        <v>-37.21</v>
-      </c>
-      <c r="F12">
-        <v>-33.03</v>
-      </c>
-      <c r="G12">
-        <v>1.45</v>
-      </c>
-      <c r="H12">
-        <v>-144.11</v>
-      </c>
-      <c r="I12">
-        <v>-322.35</v>
-      </c>
-      <c r="J12">
-        <v>-286.11</v>
-      </c>
-      <c r="K12">
-        <v>-61.52</v>
-      </c>
-      <c r="L12">
-        <v>-7.77</v>
-      </c>
-      <c r="M12">
-        <v>1.27</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>266.21</v>
-      </c>
-      <c r="R12">
-        <v>466.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>12.62</v>
-      </c>
-      <c r="C13">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="D13">
-        <v>5.36</v>
-      </c>
-      <c r="E13">
-        <v>-10.39</v>
-      </c>
-      <c r="F13">
-        <v>-9.74</v>
-      </c>
-      <c r="G13">
-        <v>68.47</v>
-      </c>
-      <c r="H13">
-        <v>42.49</v>
-      </c>
-      <c r="I13">
-        <v>-82.34999999999999</v>
-      </c>
-      <c r="J13">
-        <v>-77.22</v>
-      </c>
-      <c r="K13">
-        <v>-22.18</v>
-      </c>
-      <c r="L13">
-        <v>-2.23</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>264.37</v>
-      </c>
-      <c r="R13">
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>21.32</v>
-      </c>
-      <c r="C14">
-        <v>3.02</v>
-      </c>
-      <c r="D14">
-        <v>1.24</v>
-      </c>
-      <c r="E14">
-        <v>-13.99</v>
-      </c>
-      <c r="F14">
-        <v>-14.92</v>
-      </c>
-      <c r="G14">
-        <v>14.18</v>
-      </c>
-      <c r="H14">
-        <v>5.82</v>
-      </c>
-      <c r="I14">
-        <v>-65.63</v>
-      </c>
-      <c r="J14">
-        <v>-69.95999999999999</v>
-      </c>
-      <c r="K14">
-        <v>-55.49</v>
-      </c>
-      <c r="L14">
-        <v>-3.46</v>
-      </c>
-      <c r="M14">
-        <v>2.6</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>279.37</v>
-      </c>
-      <c r="R14">
-        <v>27.13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>20.84</v>
-      </c>
-      <c r="C15">
-        <v>4.36</v>
-      </c>
-      <c r="D15">
-        <v>2.62</v>
-      </c>
-      <c r="E15">
-        <v>-12.76</v>
-      </c>
-      <c r="F15">
-        <v>-12.65</v>
-      </c>
-      <c r="G15">
-        <v>20.9</v>
-      </c>
-      <c r="H15">
-        <v>12.59</v>
-      </c>
-      <c r="I15">
-        <v>-61.23</v>
-      </c>
-      <c r="J15">
-        <v>-60.68</v>
-      </c>
-      <c r="K15">
-        <v>-88.06</v>
-      </c>
-      <c r="L15">
-        <v>-3.55</v>
-      </c>
-      <c r="M15">
-        <v>3.56</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>200.37</v>
-      </c>
-      <c r="R15">
-        <v>13.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>21.14</v>
-      </c>
-      <c r="C16">
-        <v>-4.66</v>
-      </c>
-      <c r="D16">
-        <v>-6.24</v>
-      </c>
-      <c r="E16">
-        <v>-21.64</v>
-      </c>
-      <c r="F16">
-        <v>-19.37</v>
-      </c>
-      <c r="G16">
-        <v>-22.03</v>
-      </c>
-      <c r="H16">
-        <v>-29.53</v>
-      </c>
-      <c r="I16">
-        <v>-102.35</v>
-      </c>
-      <c r="J16">
-        <v>-91.59</v>
-      </c>
-      <c r="K16">
-        <v>-991.4400000000001</v>
-      </c>
-      <c r="L16">
-        <v>-5.26</v>
-      </c>
-      <c r="M16">
-        <v>26.27</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>190.92</v>
-      </c>
-      <c r="R16">
-        <v>-12.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>19.97</v>
-      </c>
-      <c r="C17">
-        <v>2.96</v>
-      </c>
-      <c r="D17">
-        <v>1.63</v>
-      </c>
-      <c r="E17">
-        <v>-13.76</v>
-      </c>
-      <c r="F17">
-        <v>-15.06</v>
-      </c>
-      <c r="G17">
-        <v>14.83</v>
-      </c>
-      <c r="H17">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="I17">
-        <v>-68.90000000000001</v>
-      </c>
-      <c r="J17">
-        <v>-75.39</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>-4.02</v>
-      </c>
-      <c r="M17">
-        <v>-19.57</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>326.58</v>
-      </c>
-      <c r="R17">
-        <v>32.37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>18.63</v>
-      </c>
-      <c r="C18">
-        <v>1.82</v>
-      </c>
-      <c r="D18">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E18">
-        <v>-14.83</v>
-      </c>
-      <c r="F18">
-        <v>-14.46</v>
-      </c>
-      <c r="G18">
-        <v>9.76</v>
-      </c>
-      <c r="H18">
-        <v>3.01</v>
-      </c>
-      <c r="I18">
-        <v>-79.56999999999999</v>
-      </c>
-      <c r="J18">
-        <v>-77.59999999999999</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>-3.9</v>
-      </c>
-      <c r="M18">
-        <v>-4.86</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>357.22</v>
-      </c>
-      <c r="R18">
-        <v>57.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>19.26</v>
-      </c>
-      <c r="C19">
-        <v>1.69</v>
-      </c>
-      <c r="D19">
-        <v>0.44</v>
-      </c>
-      <c r="E19">
-        <v>-14.94</v>
-      </c>
-      <c r="F19">
-        <v>-14.77</v>
-      </c>
-      <c r="G19">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H19">
-        <v>2.28</v>
-      </c>
-      <c r="I19">
-        <v>-77.59999999999999</v>
-      </c>
-      <c r="J19">
-        <v>-76.72</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>-3.9</v>
-      </c>
-      <c r="M19">
-        <v>-3.44</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>390.58</v>
-      </c>
-      <c r="R19">
-        <v>67.68000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>1.73</v>
-      </c>
-      <c r="C20">
-        <v>0.08</v>
-      </c>
-      <c r="D20">
-        <v>-0.05</v>
-      </c>
-      <c r="E20">
-        <v>4.26</v>
-      </c>
-      <c r="F20">
-        <v>3.62</v>
-      </c>
-      <c r="G20">
-        <v>4.82</v>
-      </c>
-      <c r="H20">
-        <v>-3.11</v>
-      </c>
-      <c r="I20">
-        <v>246.43</v>
-      </c>
-      <c r="J20">
-        <v>209.44</v>
-      </c>
-      <c r="K20">
-        <v>433.81</v>
-      </c>
-      <c r="L20">
-        <v>160.27</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>184.58</v>
-      </c>
-      <c r="R20">
-        <v>72.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1.6</v>
-      </c>
-      <c r="C21">
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.03</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
-      </c>
-      <c r="F21">
-        <v>0.05</v>
-      </c>
-      <c r="G21">
-        <v>2.9</v>
-      </c>
-      <c r="H21">
-        <v>1.99</v>
-      </c>
-      <c r="I21">
-        <v>0.48</v>
-      </c>
-      <c r="J21">
-        <v>2.83</v>
-      </c>
-      <c r="K21">
-        <v>5.21</v>
-      </c>
-      <c r="L21">
-        <v>4.64</v>
-      </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.02</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -8136,9 +8352,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>530.62</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>374.05</v>
       </c>
     </row>
